--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/82.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/82.xlsx
@@ -479,13 +479,13 @@
         <v>-3.045951138531032</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.25591051411658</v>
+        <v>-10.75539495983127</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.152537592006837</v>
+        <v>-3.364344867380281</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.08433942761696</v>
+        <v>-9.104809063666336</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.407938888811387</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.82740262546076</v>
+        <v>-11.35637093717502</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.254343338904099</v>
+        <v>-3.385083075081575</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.980844773653115</v>
+        <v>-8.957324272154292</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.799535928832789</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.99097785716529</v>
+        <v>-11.51624104717533</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.158206559137305</v>
+        <v>-3.286327834746436</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.610699187711836</v>
+        <v>-8.557511527973661</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.146967575042147</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.4559248079835</v>
+        <v>-11.97322787786578</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.296958784653917</v>
+        <v>-3.433105641905027</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.315755789293431</v>
+        <v>-8.233228278886948</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.429696097632184</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.89807805955428</v>
+        <v>-12.37245146841854</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.384192798488338</v>
+        <v>-3.446341960078012</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.031849202170601</v>
+        <v>-7.933676389868255</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.607666613966419</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.44531013373274</v>
+        <v>-12.96841309377391</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.257852076065682</v>
+        <v>-3.246186834233704</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.717175703369715</v>
+        <v>-7.555950360581616</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.653945967146881</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.03290577757225</v>
+        <v>-13.51626050618593</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.259711183069207</v>
+        <v>-3.111584868717918</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.558614823653571</v>
+        <v>-7.368036537894322</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.531698030836258</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.45840561992835</v>
+        <v>-13.88385309307308</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.374386663659886</v>
+        <v>-3.251188093919243</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.41851409094426</v>
+        <v>-7.132178702200627</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.218625201672799</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.1324890163403</v>
+        <v>-14.65002774767373</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.247757910574711</v>
+        <v>-3.097104781774969</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.387275856363901</v>
+        <v>-7.060288867296709</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.694976557637486</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.58062545030974</v>
+        <v>-15.09057064599497</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.326717589013161</v>
+        <v>-3.130660353958313</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.390850055039693</v>
+        <v>-7.063915435183867</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.973126575573575</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.13661627508932</v>
+        <v>-15.68716070188674</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.361896606748879</v>
+        <v>-3.162487742166549</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.135379949689092</v>
+        <v>-6.661798445703092</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.082810823501553</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.2252511653278</v>
+        <v>-15.76979931742372</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.447480990425242</v>
+        <v>-3.363742621449562</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.685698623984327</v>
+        <v>-6.213923857790485</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.092033404813695</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.90865628136306</v>
+        <v>-16.53829130962735</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.155129867969499</v>
+        <v>-2.982547131909866</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.318315513942651</v>
+        <v>-5.816362989698631</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.07315712326741028</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.51624387164189</v>
+        <v>-17.16539952344319</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.085531186062883</v>
+        <v>-2.945273345719472</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.267006779105927</v>
+        <v>-5.724441931446873</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8927370475268361</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.2751915750739</v>
+        <v>-17.95714344549373</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.902644807666812</v>
+        <v>-2.68842854857049</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.020007393693923</v>
+        <v>-5.47911836079861</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.750930640242143</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.78847530798378</v>
+        <v>-18.49027510951166</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.768592718870379</v>
+        <v>-2.606719486535277</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.764000503926812</v>
+        <v>-5.318227051176638</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.46398120216911</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.20248010844484</v>
+        <v>-18.96354876493722</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.85180739573239</v>
+        <v>-2.600906504073551</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.671372461321599</v>
+        <v>-5.269144007823007</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.022674732482499</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.76416608496057</v>
+        <v>-19.62444821238755</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.632092369442542</v>
+        <v>-2.350201996957339</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.299537968313738</v>
+        <v>-4.943420605423705</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.427205592116477</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.08253161316282</v>
+        <v>-19.9998569040712</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.391390381697409</v>
+        <v>-2.138879136789038</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.916758310130192</v>
+        <v>-4.711909414273462</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.689583596731793</v>
       </c>
       <c r="E21" t="n">
-        <v>-19.7466779517179</v>
+        <v>-20.72823408036779</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.149575548210728</v>
+        <v>-1.871010620647323</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.87077814255005</v>
+        <v>-4.810376623946084</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.825150455842036</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.30400419138734</v>
+        <v>-21.38462977564057</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.962578186722355</v>
+        <v>-1.593597815733989</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.844632813775124</v>
+        <v>-4.854654792156802</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.852479190221579</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.49182636795474</v>
+        <v>-21.58113214899203</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.838319140451533</v>
+        <v>-1.48392359482885</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.662152296767146</v>
+        <v>-4.805755041042954</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.7903644940512</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.00707394629087</v>
+        <v>-22.17357194488298</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.63456363132575</v>
+        <v>-1.342605277955259</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.813892086702751</v>
+        <v>-5.014040486951974</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.655549255938507</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.16744156379917</v>
+        <v>-22.40148275275175</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.446820008575398</v>
+        <v>-1.145526843278756</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.829615942415664</v>
+        <v>-5.002218137485896</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.461648883820851</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.29211956376093</v>
+        <v>-22.46808329730761</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.452737729459858</v>
+        <v>-1.17058551091782</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.042941924918748</v>
+        <v>-5.189032206734486</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.218378679244596</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.36999258106352</v>
+        <v>-22.55187403549466</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.303354554035764</v>
+        <v>-0.926204586074161</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.30304670547532</v>
+        <v>-5.356508944685845</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.929859179024738</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.29424051682129</v>
+        <v>-22.41458814789631</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.241912376799543</v>
+        <v>-0.9323055991984054</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.340831091476542</v>
+        <v>-5.383217242482966</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.600273815430406</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.34486845191024</v>
+        <v>-22.53882100956145</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.093301647243111</v>
+        <v>-0.8011076324214684</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.655936636271205</v>
+        <v>-5.670933689732738</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.228734744756629</v>
       </c>
       <c r="E30" t="n">
-        <v>-21.37991654661755</v>
+        <v>-22.60413850843883</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.181046260888359</v>
+        <v>-0.8403321717352797</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.833533724319218</v>
+        <v>-5.835975259355537</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.821597596066594</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.2233326046305</v>
+        <v>-22.42985377300977</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.248471620523248</v>
+        <v>-0.9208236496062117</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.884685351521842</v>
+        <v>-5.885215410343269</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.381396128696021</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.11056860025472</v>
+        <v>-22.24717687145916</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.329971205712993</v>
+        <v>-1.019958566723761</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.208340170072153</v>
+        <v>-6.11285127985236</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9226824718328686</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.06430040201206</v>
+        <v>-22.28352110414779</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.40564471613817</v>
+        <v>-1.067758564398903</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.121512017625825</v>
+        <v>-6.030435233463694</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.4537175622819123</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.66747270287934</v>
+        <v>-21.84989094172699</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.543991080266689</v>
+        <v>-1.259992847023967</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.061261239948202</v>
+        <v>-5.913206753818879</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.00654360405509239</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.40002314042856</v>
+        <v>-21.56708410804286</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.579994913081436</v>
+        <v>-1.291231081604326</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.024628976597052</v>
+        <v>-5.917972352053268</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.4481535943300883</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.16889162606073</v>
+        <v>-21.33116081083496</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.747065789644702</v>
+        <v>-1.435521351222989</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.927392443391553</v>
+        <v>-5.692457435604537</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.8552985058254973</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.88223565534113</v>
+        <v>-21.01009826824731</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.75129460346258</v>
+        <v>-1.45965046536029</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.741717404490194</v>
+        <v>-5.632455411680906</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.222518860313547</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.5659779878964</v>
+        <v>-20.66020647480218</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.82487334543308</v>
+        <v>-1.588688202168342</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.391904164862115</v>
+        <v>-5.154861296317581</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.542314256605079</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.42832551581849</v>
+        <v>-20.53644493603935</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.758966692927831</v>
+        <v>-1.527075824995179</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.060537979938028</v>
+        <v>-4.803882841736588</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.816570421430334</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.06710888041527</v>
+        <v>-20.15069332511073</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.912408482232861</v>
+        <v>-1.557633259827768</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.216846983565396</v>
+        <v>-4.884400504213203</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.047224640491675</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.70394149188863</v>
+        <v>-19.71896154660197</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.779560885297866</v>
+        <v>-1.431279445102269</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.801009260706492</v>
+        <v>-4.487206220600918</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.244937622675157</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.16565146055106</v>
+        <v>-19.14440583639282</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.87986101736833</v>
+        <v>-1.571209977874638</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.698627452484195</v>
+        <v>-4.451673710688473</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.42169917002065</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.81005142306694</v>
+        <v>-18.71561982602345</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.151251362974469</v>
+        <v>-1.886276245760775</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.605920856061932</v>
+        <v>-4.372648570735815</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.595091671696109</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.64336022328608</v>
+        <v>-18.53891301456867</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.266568366404393</v>
+        <v>-2.03793748187933</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.441088763284601</v>
+        <v>-4.125924123683487</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.782696138769671</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.47731054634447</v>
+        <v>-18.24918035268128</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.168559387331231</v>
+        <v>-2.045177525350804</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.380982000938237</v>
+        <v>-4.050604105435037</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.002671676553521</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.06295225370668</v>
+        <v>-17.73992904904665</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.298474308429679</v>
+        <v>-2.159892282850008</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.198265822479108</v>
+        <v>-3.889267657516446</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.271387256288976</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.14387577757139</v>
+        <v>-17.68545197692223</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.211148648475366</v>
+        <v>-2.002863202566346</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.080199435452422</v>
+        <v>-3.818975083559219</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.599729058337343</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.01369901041611</v>
+        <v>-17.55090238061781</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.343014322697231</v>
+        <v>-2.151172809157419</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.862107854714949</v>
+        <v>-3.580760633354013</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.99673566014092</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.56794537556386</v>
+        <v>-17.13146427447744</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.370259404910863</v>
+        <v>-2.169986448340979</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.811584658048728</v>
+        <v>-3.592766275059876</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.46134610409763</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.30405691948603</v>
+        <v>-16.77894092816112</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.558199412203841</v>
+        <v>-2.353920210964389</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.626040542175786</v>
+        <v>-3.408976527767726</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.992311724003859</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.85321037882835</v>
+        <v>-16.29442098459452</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.659573113107326</v>
+        <v>-2.508946168913267</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.540547804619315</v>
+        <v>-3.235241669058021</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.574201870830338</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.69209650005807</v>
+        <v>-16.06183622461126</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.574185113973588</v>
+        <v>-2.40846274460302</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.491504038174209</v>
+        <v>-3.120631649981551</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.196099374996543</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.24596318842342</v>
+        <v>-15.57671403511394</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.445356854011004</v>
+        <v>-2.319854038970218</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.51335509161705</v>
+        <v>-3.100246934456983</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.831363245497052</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.91937569403656</v>
+        <v>-15.19626480683622</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.644752626290491</v>
+        <v>-2.513881967084598</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.703900467175531</v>
+        <v>-3.30516765853568</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.463275828713832</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.52562468607165</v>
+        <v>-14.83553258663814</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.673974646233224</v>
+        <v>-2.527484869737151</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.735662393869559</v>
+        <v>-3.336392800813196</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.062017549764397</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.62092355845657</v>
+        <v>-14.91514688021868</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.506183693013663</v>
+        <v>-2.412455896969746</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.620423944256686</v>
+        <v>-3.249198063887301</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.611745032745347</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.46359335520755</v>
+        <v>-14.76857854990556</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.659690943832901</v>
+        <v>-2.59217393807812</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.815473071992721</v>
+        <v>-3.386169736217439</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.08928380083996</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.3964953031437</v>
+        <v>-14.63243169265445</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.522915656045389</v>
+        <v>-2.438300102779313</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.167786941463569</v>
+        <v>-3.741154435468</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.486826003514857</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.07001254717958</v>
+        <v>-14.27684474747317</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.5069168619728</v>
+        <v>-2.454678573634312</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.392346119804855</v>
+        <v>-4.128136722863738</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.792754857458412</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.75689703241686</v>
+        <v>-14.02909910079919</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.558369612140783</v>
+        <v>-2.497922449920534</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.572195083941646</v>
+        <v>-4.233294099288482</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.01059265358018</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.76492261405884</v>
+        <v>-14.01564021347789</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.429646090600933</v>
+        <v>-2.317759270515541</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.731580778736819</v>
+        <v>-4.405916112256641</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.14143413661525</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.57322511585028</v>
+        <v>-13.86713422234419</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.413830588768127</v>
+        <v>-2.304352752405614</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.907083098330157</v>
+        <v>-4.571756312352785</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.19866813635386</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.46438880232702</v>
+        <v>-13.81619207198704</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.503499770931109</v>
+        <v>-2.339204462570289</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.904634837698754</v>
+        <v>-4.5054307061566</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.19103582305679</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.24942628196871</v>
+        <v>-13.60603442677165</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.37365031134687</v>
+        <v>-2.206802003931913</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.990481067431952</v>
+        <v>-4.587231414311705</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.13506693374187</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.13280004825462</v>
+        <v>-13.58993089427633</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.358921470649928</v>
+        <v>-2.224332597436984</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.258912552595862</v>
+        <v>-4.842492042816838</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.04005348866679</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.06233727436045</v>
+        <v>-13.48466877942885</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.415912264919962</v>
+        <v>-2.244730405264393</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.219190505774065</v>
+        <v>-4.77758040532756</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.920761207189402</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.13020777229196</v>
+        <v>-13.65383442444679</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.543771694472258</v>
+        <v>-2.393799365420286</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.162828142040434</v>
+        <v>-4.730408838188821</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.784117233564842</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.18037747678145</v>
+        <v>-13.73369747178132</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.60317147246517</v>
+        <v>-2.365546175887841</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.263429397076257</v>
+        <v>-4.741772957055439</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.641935598635598</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.98784207119103</v>
+        <v>-13.61080002500604</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.405909745548883</v>
+        <v>-2.182031366955367</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.09256175268889</v>
+        <v>-4.557970117460447</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.497879567175383</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.12146211399368</v>
+        <v>-13.70663568180747</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.674485246044052</v>
+        <v>-2.476333242534527</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.037194403971231</v>
+        <v>-4.591866089517676</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.360162037399148</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.03255228539552</v>
+        <v>-13.60477756569884</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.707386203085309</v>
+        <v>-2.485524039129419</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.880741385012604</v>
+        <v>-4.35137357861801</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.229826318956917</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.15018662642843</v>
+        <v>-13.75027232717895</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.778870176601134</v>
+        <v>-2.547869585261719</v>
       </c>
       <c r="G72" t="n">
-        <v>-2.881828046148467</v>
+        <v>-4.511348427041061</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.111500839948469</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.27173556601102</v>
+        <v>-13.93914188797369</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.785193758873687</v>
+        <v>-2.50153592550485</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.77216691754617</v>
+        <v>-4.425646212639122</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.00446582756223</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.51292196896129</v>
+        <v>-14.190003502724</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.848285566267965</v>
+        <v>-2.542279171948302</v>
       </c>
       <c r="G74" t="n">
-        <v>-2.837706985571851</v>
+        <v>-4.468222381480415</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.909524371345322</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.77501677954981</v>
+        <v>-14.3188055780809</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.923815061361883</v>
+        <v>-2.600081688994522</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.6850114575288</v>
+        <v>-4.368851802911714</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.825082098535097</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.90076834834459</v>
+        <v>-14.46087015621647</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.089576707640977</v>
+        <v>-2.772376394391638</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.319199423828131</v>
+        <v>-4.111365482923487</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.748091477975015</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.39805328718187</v>
+        <v>-14.94248360855221</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.209227263311511</v>
+        <v>-2.824588498124441</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.047534139862315</v>
+        <v>-3.824578589175478</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.676596458881303</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.17149416985968</v>
+        <v>-15.75973133653843</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.420523938874128</v>
+        <v>-3.078343511802776</v>
       </c>
       <c r="G78" t="n">
-        <v>-1.89601691907502</v>
+        <v>-3.720403135463864</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.605143018512845</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.59365547499113</v>
+        <v>-16.09011559874939</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.348202057976433</v>
+        <v>-2.964571400108176</v>
       </c>
       <c r="G79" t="n">
-        <v>-1.858743132884625</v>
+        <v>-3.787763033584544</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.532018389337479</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.05412485823748</v>
+        <v>-16.41166255654218</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.55138150577718</v>
+        <v>-3.175226552831548</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.68530939714028</v>
+        <v>-3.635617382260846</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.450398838274916</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.686718746944</v>
+        <v>-17.00636732082474</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.701995357668397</v>
+        <v>-3.31890148421665</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.423332417277342</v>
+        <v>-3.402796960826431</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.35916543333469</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.3953003613439</v>
+        <v>-17.69006046752252</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.961301507751623</v>
+        <v>-3.559315441299266</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.415385389452414</v>
+        <v>-3.41173900366733</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.250957776937312</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.2401204791148</v>
+        <v>-18.51325210099889</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.194449236757081</v>
+        <v>-3.786453803300372</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.48468294839367</v>
+        <v>-3.591758167741063</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.12613600498311</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.02442797315124</v>
+        <v>-19.299903117244</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.426837612197719</v>
+        <v>-3.978805916651011</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.255750940903248</v>
+        <v>-3.387976474009597</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.979285182691521</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.93659489673998</v>
+        <v>-20.16695396524015</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.594680934628647</v>
+        <v>-4.132993967218019</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.263776522545226</v>
+        <v>-3.401304438302474</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.813805800590258</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.16630253345194</v>
+        <v>-21.26499231227287</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.815286237511732</v>
+        <v>-4.306440795265206</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.227890520456055</v>
+        <v>-3.376075570726468</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.628160947962524</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.24793622502398</v>
+        <v>-22.3639733051102</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.861593712662916</v>
+        <v>-4.34463104265452</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.467793877727843</v>
+        <v>-3.587607907740236</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.431210797879148</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.66460194631579</v>
+        <v>-23.69978096405151</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.904654296709354</v>
+        <v>-4.41265864822013</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.462583141196836</v>
+        <v>-3.641325626299838</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.22812953474433</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.02650256482067</v>
+        <v>-25.07804696110854</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.166565815058084</v>
+        <v>-4.677267180954255</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.602461304757838</v>
+        <v>-3.803251227846306</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.033527491812504</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.5692471624783</v>
+        <v>-26.63970993637247</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.26613277816941</v>
+        <v>-4.754302290874971</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.79362201854988</v>
+        <v>-4.060933932377159</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.856282858930268</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.10806406928342</v>
+        <v>-28.16475374058809</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.516352870080479</v>
+        <v>-4.950424987444028</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.060338412041523</v>
+        <v>-4.235781636828411</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.709657716932768</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.8013701496209</v>
+        <v>-29.93797523747147</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.665958614652882</v>
+        <v>-5.130915474420063</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.279032238709715</v>
+        <v>-4.564974499480771</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.599164693708652</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.52655598737798</v>
+        <v>-31.69257947971391</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.817096158657768</v>
+        <v>-5.280429572872575</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.721984120753834</v>
+        <v>-4.940121345107589</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.529690348459074</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.17521731502518</v>
+        <v>-33.40530144516568</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.772189559910648</v>
+        <v>-5.243666386493008</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.141199657745902</v>
+        <v>-5.271539899243043</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.500114465703973</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.16135893302355</v>
+        <v>-35.38369241988174</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.982150820583409</v>
+        <v>-5.435324607793036</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.324897758918161</v>
+        <v>-5.531710141313823</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.505251044289765</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.99133556272581</v>
+        <v>-37.27414239640994</v>
       </c>
       <c r="F96" t="n">
-        <v>-6.294873566260878</v>
+        <v>-5.723250531888276</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.915792663073784</v>
+        <v>-6.01931986835107</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.538330939344529</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.08368194137626</v>
+        <v>-39.40299011538312</v>
       </c>
       <c r="F97" t="n">
-        <v>-6.286690876984799</v>
+        <v>-5.735832234919175</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.240206835188914</v>
+        <v>-6.370861291954256</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.585333220229829</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.33313595412743</v>
+        <v>-41.68983574505025</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.485772433996085</v>
+        <v>-5.913390046058663</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.758190704818964</v>
+        <v>-6.848769622585783</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.637596789359832</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.27353306599681</v>
+        <v>-43.66755901232139</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.597345038813275</v>
+        <v>-6.074765770885779</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.038261247209168</v>
+        <v>-7.046371749375954</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.678080183501939</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.3648582450256</v>
+        <v>-45.86006150771105</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.710685104514098</v>
+        <v>-6.190135143527069</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.131399889625207</v>
+        <v>-7.214764948526235</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.705496186236645</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.52312436848415</v>
+        <v>-48.07687640947779</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.841411748388732</v>
+        <v>-6.30072582563113</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.609439143285151</v>
+        <v>-7.707506858277437</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.704478143820982</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.67053697288689</v>
+        <v>-50.32516520727604</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.269713343552959</v>
+        <v>-6.665569028921509</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.043501351699737</v>
+        <v>-8.149110233128857</v>
       </c>
     </row>
   </sheetData>
